--- a/Config/ExcelData/languageConfig.xlsx
+++ b/Config/ExcelData/languageConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20580" windowHeight="8355"/>
+    <workbookView windowWidth="18810" windowHeight="4935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>ID</t>
   </si>
@@ -100,7 +100,7 @@
     <t>谁去把它丢湖里试试。</t>
   </si>
   <si>
-    <t>“Someone go throw it into the lake and see what happens.”</t>
+    <t>Someone go throw it into the lake and see what happens.</t>
   </si>
   <si>
     <t>石锤</t>
@@ -119,6 +119,36 @@
   </si>
   <si>
     <t>Bag</t>
+  </si>
+  <si>
+    <t>一个神秘的线索</t>
+  </si>
+  <si>
+    <t>One mysterious clue</t>
+  </si>
+  <si>
+    <t>从外形和质感上看，只是一个手提箱罢了</t>
+  </si>
+  <si>
+    <t>Judging by its appearance and texture, it’s just a suitcase.</t>
+  </si>
+  <si>
+    <t>这个工具箱看起来新的仿佛刚从沃尔玛超市货架上取下来</t>
+  </si>
+  <si>
+    <t>This toolbox looks so new, as if it were just taken off the shelves at a Walmart store.</t>
+  </si>
+  <si>
+    <t>手提箱</t>
+  </si>
+  <si>
+    <t>Suitcase</t>
+  </si>
+  <si>
+    <t>工具箱</t>
+  </si>
+  <si>
+    <t>Toolbox</t>
   </si>
 </sst>
 </file>
@@ -1089,17 +1119,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="62.5" customWidth="1"/>
-    <col min="3" max="3" width="58" customWidth="1"/>
+    <col min="2" max="2" width="77.5" customWidth="1"/>
+    <col min="3" max="3" width="124.5" customWidth="1"/>
     <col min="4" max="4" width="23.75" customWidth="1"/>
     <col min="5" max="5" width="23.25" customWidth="1"/>
   </cols>
@@ -1256,6 +1286,61 @@
       </c>
       <c r="C14" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>50012</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>50013</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>50014</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>50015</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>50016</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
